--- a/data/trans_orig/P21D5_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>178987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>167941</v>
+        <v>169731</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186607</v>
+        <v>186582</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.906286162578666</v>
+        <v>0.9062861625786663</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8503549119181969</v>
+        <v>0.8594197237663281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9448677789982637</v>
+        <v>0.9447416721452516</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>338</v>
@@ -762,19 +762,19 @@
         <v>244863</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>236472</v>
+        <v>236406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>251373</v>
+        <v>251323</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9100106403265539</v>
+        <v>0.910010640326554</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8788252062897236</v>
+        <v>0.8785812811559481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9342029378672126</v>
+        <v>0.9340190313676995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -783,19 +783,19 @@
         <v>423850</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>411045</v>
+        <v>411655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>434117</v>
+        <v>434337</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9084341054259751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.880988805217246</v>
+        <v>0.882297380315297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9304389655285064</v>
+        <v>0.9309104594200107</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>16088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9153</v>
+        <v>9117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26949</v>
+        <v>25577</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08146280830170291</v>
+        <v>0.08146280830170292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04634788235378708</v>
+        <v>0.04616140351414891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1364530938405711</v>
+        <v>0.1295084313175024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -833,19 +833,19 @@
         <v>18346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12561</v>
+        <v>13116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26438</v>
+        <v>25565</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06818105494963624</v>
+        <v>0.06818105494963625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04668032099777124</v>
+        <v>0.04874578428203196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09825477892778242</v>
+        <v>0.09501128341037698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -854,19 +854,19 @@
         <v>34434</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25757</v>
+        <v>25029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47370</v>
+        <v>46010</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07380309087461603</v>
+        <v>0.07380309087461605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05520370900609538</v>
+        <v>0.05364507669976697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1015273522238071</v>
+        <v>0.09861366875575187</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2420</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7068</v>
+        <v>7754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0122510291196309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002642889624112355</v>
+        <v>0.002659378784241656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03578944897393382</v>
+        <v>0.03926220546087266</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>3847</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1519</v>
+        <v>1462</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8063</v>
+        <v>8796</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01429570840404494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005644307879668457</v>
+        <v>0.005432709800960994</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02996382062862337</v>
+        <v>0.0326877976317139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -925,19 +925,19 @@
         <v>6266</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3022</v>
+        <v>3149</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12378</v>
+        <v>12425</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01343021571739984</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006477498648984749</v>
+        <v>0.0067497067380032</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02652902401324398</v>
+        <v>0.0266311338464151</v>
       </c>
     </row>
     <row r="7">
@@ -967,19 +967,19 @@
         <v>2021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6800</v>
+        <v>5946</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007512596319764869</v>
+        <v>0.007512596319764871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001467673164845655</v>
+        <v>0.001430432178027809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02527204382099591</v>
+        <v>0.02209611119658101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -988,19 +988,19 @@
         <v>2021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6814</v>
+        <v>5233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004332587982008989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008289410066280082</v>
+        <v>0.0008307064109436529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01460361535155984</v>
+        <v>0.01121653392836595</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>377936</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>363808</v>
+        <v>363230</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>385603</v>
+        <v>385479</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9540988996185832</v>
+        <v>0.9540988996185834</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9184334636204043</v>
+        <v>0.9169751890793778</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9734559393580445</v>
+        <v>0.973141938686668</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>644</v>
@@ -1113,19 +1113,19 @@
         <v>449260</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>439075</v>
+        <v>439787</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>457007</v>
+        <v>456587</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9372337041422676</v>
+        <v>0.9372337041422675</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9159850357387502</v>
+        <v>0.917470860122009</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.953394958221314</v>
+        <v>0.9525181095448363</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>995</v>
@@ -1134,19 +1134,19 @@
         <v>827196</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>811303</v>
+        <v>810471</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>839008</v>
+        <v>838264</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9448646278443404</v>
+        <v>0.9448646278443402</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9267115008006666</v>
+        <v>0.9257601409069169</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9583569448528719</v>
+        <v>0.9575072240747055</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>14768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7393</v>
+        <v>8050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27657</v>
+        <v>29994</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03728178863839173</v>
+        <v>0.03728178863839174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01866260392319508</v>
+        <v>0.020322237387254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06982099530479252</v>
+        <v>0.07571864144132075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1184,19 +1184,19 @@
         <v>22083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15031</v>
+        <v>16013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31179</v>
+        <v>31294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04606942247706931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0313576617561445</v>
+        <v>0.03340563734382243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06504504191853934</v>
+        <v>0.06528550578853255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1205,19 +1205,19 @@
         <v>36851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26298</v>
+        <v>27230</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51767</v>
+        <v>52209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04209331894249277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03003906413626383</v>
+        <v>0.03110306447386828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05913118669991548</v>
+        <v>0.05963535812521676</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>2420</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6716</v>
+        <v>6344</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006108103897163397</v>
+        <v>0.006108103897163398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001759250486493216</v>
+        <v>0.001808841103422342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01695342901103445</v>
+        <v>0.01601480710962314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1255,19 +1255,19 @@
         <v>5550</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2411</v>
+        <v>2528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11329</v>
+        <v>10226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01157921373594061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005030681385724533</v>
+        <v>0.005273679097216477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02363507996053077</v>
+        <v>0.0213341428706995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1276,19 +1276,19 @@
         <v>7970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4044</v>
+        <v>4262</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14324</v>
+        <v>13707</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009103723795488993</v>
+        <v>0.009103723795488992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004619747511562385</v>
+        <v>0.004868431231992205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0163616928520368</v>
+        <v>0.01565711776320971</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002511207845861575</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1326,19 +1326,19 @@
         <v>2453</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6428</v>
+        <v>6184</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.005117659644722664</v>
+        <v>0.005117659644722663</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001282825308893198</v>
+        <v>0.001365552180931736</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01340889554588714</v>
+        <v>0.01289996903544547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1347,19 +1347,19 @@
         <v>3448</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1222</v>
+        <v>1169</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8248</v>
+        <v>7800</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003938329417677776</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001395686450143719</v>
+        <v>0.001335578105365858</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009421316585840259</v>
+        <v>0.008909814630839098</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>390908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>379274</v>
+        <v>381129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>397952</v>
+        <v>398216</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9581081562006316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9295941005793616</v>
+        <v>0.9341389645661833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9753721734313585</v>
+        <v>0.9760196484850393</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -1472,19 +1472,19 @@
         <v>412104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399653</v>
+        <v>401471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419642</v>
+        <v>419205</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.948653050751414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.919990213685554</v>
+        <v>0.9241751272431905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9660052724320957</v>
+        <v>0.9649992282522473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>951</v>
@@ -1493,19 +1493,19 @@
         <v>803012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>788888</v>
+        <v>788687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>813882</v>
+        <v>814366</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9532323899956678</v>
+        <v>0.953232389995668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9364652336126174</v>
+        <v>0.9362273524596256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661350134352235</v>
+        <v>0.966709948997663</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>12895</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6816</v>
+        <v>6864</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22252</v>
+        <v>22327</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03160574543618309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01670469578276212</v>
+        <v>0.01682315904515265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05453880580532173</v>
+        <v>0.05472359585386164</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -1543,19 +1543,19 @@
         <v>19484</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12824</v>
+        <v>12599</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32142</v>
+        <v>30073</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04485275146727598</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02952147074015581</v>
+        <v>0.02900245492134846</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07398917497642531</v>
+        <v>0.06922731701004199</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -1564,19 +1564,19 @@
         <v>32380</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22903</v>
+        <v>22198</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45649</v>
+        <v>45622</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03843690185958368</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02718769745625552</v>
+        <v>0.02635072065393415</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05418902938722928</v>
+        <v>0.05415624801655073</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7316</v>
+        <v>8006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005863873182813676</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01793117818245617</v>
+        <v>0.01962155852171143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1614,19 +1614,19 @@
         <v>2011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5416</v>
+        <v>5249</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004629835170294191</v>
+        <v>0.004629835170294192</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00144445180106493</v>
+        <v>0.001416056582405522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01246688870064565</v>
+        <v>0.01208300457443334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1635,19 +1635,19 @@
         <v>4404</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1737</v>
+        <v>1311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10246</v>
+        <v>11356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005227510016966494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002062302389265546</v>
+        <v>0.001556235305023844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01216283950339956</v>
+        <v>0.01348030152274987</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004422225180371659</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1706,19 +1706,19 @@
         <v>2614</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003103198127781872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>527580</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>516672</v>
+        <v>515203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>536197</v>
+        <v>535669</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9624378159319138</v>
+        <v>0.9624378159319136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9425391529402203</v>
+        <v>0.9398594273595069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9781575395111239</v>
+        <v>0.9771956816684472</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>644</v>
@@ -1831,19 +1831,19 @@
         <v>478951</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>470359</v>
+        <v>468293</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>486073</v>
+        <v>485050</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9619743652156556</v>
+        <v>0.9619743652156555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9447181998204754</v>
+        <v>0.9405681084216676</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9762804192351974</v>
+        <v>0.9742252793167903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1131</v>
@@ -1852,19 +1852,19 @@
         <v>1006530</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>991621</v>
+        <v>992672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1017491</v>
+        <v>1017474</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9622172301503579</v>
+        <v>0.9622172301503576</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9479645805666124</v>
+        <v>0.9489694889286804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9726954474838191</v>
+        <v>0.9726788193171063</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>17064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9062</v>
+        <v>9833</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28075</v>
+        <v>28614</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03112823858267586</v>
+        <v>0.03112823858267585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01653060439555779</v>
+        <v>0.01793806815393442</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05121567907005385</v>
+        <v>0.05219967606648239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1902,19 +1902,19 @@
         <v>13796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8386</v>
+        <v>8768</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20497</v>
+        <v>20795</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02771025977573588</v>
+        <v>0.02771025977573587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01684400917313905</v>
+        <v>0.01761028731085093</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04116885256905666</v>
+        <v>0.0417663826118872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -1923,19 +1923,19 @@
         <v>30860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21927</v>
+        <v>21619</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43794</v>
+        <v>44255</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02950140427209728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02096179160141816</v>
+        <v>0.02066727553392245</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04186556770019792</v>
+        <v>0.04230684192269352</v>
       </c>
     </row>
     <row r="21">
@@ -1955,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11962</v>
+        <v>11757</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.005365323065909979</v>
+        <v>0.005365323065909978</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02182232803621741</v>
+        <v>0.02144832554219409</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1973,19 +1973,19 @@
         <v>3741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11826</v>
+        <v>14953</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.007514130158872523</v>
+        <v>0.007514130158872522</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001365225940999715</v>
+        <v>0.001390153869794643</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02375238433846713</v>
+        <v>0.0300336829708589</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1994,19 +1994,19 @@
         <v>6682</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2104</v>
+        <v>2356</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16963</v>
+        <v>17117</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.00638807753663641</v>
+        <v>0.006388077536636411</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002011067718717499</v>
+        <v>0.002252398106734109</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01621589204126916</v>
+        <v>0.01636347741771593</v>
       </c>
     </row>
     <row r="22">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3751</v>
+        <v>3039</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001068622419500424</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006843263325229004</v>
+        <v>0.00554448516492818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002801244849736029</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>1980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5464</v>
+        <v>5847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001893288040908651</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0005612820954560811</v>
+        <v>0.0005529226947157916</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005223076659651475</v>
+        <v>0.005589991309701437</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>1475410</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1454635</v>
+        <v>1455384</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1491311</v>
+        <v>1492144</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9520109436971359</v>
+        <v>0.9520109436971358</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9386056502478133</v>
+        <v>0.9390890495655935</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9622711667965641</v>
+        <v>0.962808489052566</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2209</v>
@@ -2190,19 +2190,19 @@
         <v>1585178</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1566526</v>
+        <v>1569045</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1601580</v>
+        <v>1601287</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9431559099092796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9320579681191608</v>
+        <v>0.9335568291465336</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9529150067682804</v>
+        <v>0.9527402118959241</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3587</v>
@@ -2211,19 +2211,19 @@
         <v>3060589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3036678</v>
+        <v>3036268</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3084034</v>
+        <v>3086312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9474039762135628</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9400024346900769</v>
+        <v>0.9398754309387614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9546616049449183</v>
+        <v>0.9553668103974262</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>60815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45848</v>
+        <v>45455</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80328</v>
+        <v>80587</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03924111709532905</v>
+        <v>0.03924111709532904</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02958340672700498</v>
+        <v>0.02933017983977938</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05183172260164394</v>
+        <v>0.05199879106020263</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>111</v>
@@ -2261,19 +2261,19 @@
         <v>73710</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59245</v>
+        <v>60156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89688</v>
+        <v>90366</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04385636011234271</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03524964289808534</v>
+        <v>0.03579196475788349</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05336267647343601</v>
+        <v>0.0537665869449705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -2282,19 +2282,19 @@
         <v>134525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113645</v>
+        <v>111802</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157788</v>
+        <v>155979</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04164226823913714</v>
+        <v>0.04164226823913713</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03517864003902878</v>
+        <v>0.03460833862125168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04884321372610175</v>
+        <v>0.04828318550643357</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>10173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5085</v>
+        <v>4883</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18116</v>
+        <v>18527</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.006563898989664228</v>
+        <v>0.006563898989664229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003281256840243346</v>
+        <v>0.003150482118714375</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01168907195190705</v>
+        <v>0.01195450059794375</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2332,19 +2332,19 @@
         <v>15150</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9358</v>
+        <v>9229</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25355</v>
+        <v>25968</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.009013717921077746</v>
+        <v>0.009013717921077745</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005567688106394601</v>
+        <v>0.00549139752661829</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01508563736122097</v>
+        <v>0.01545058208386942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2353,19 +2353,19 @@
         <v>25322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17610</v>
+        <v>16773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37264</v>
+        <v>37086</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007838454957270138</v>
+        <v>0.00783845495727014</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005451119055893451</v>
+        <v>0.005191948755978739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01153501109667643</v>
+        <v>0.01147989825784015</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>3385</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8998</v>
+        <v>8655</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002184040217870914</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0006354192123802474</v>
+        <v>0.0006606422601730066</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.005806013623566291</v>
+        <v>0.005584733424960757</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2403,19 +2403,19 @@
         <v>6679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3604</v>
+        <v>3599</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12070</v>
+        <v>12273</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.003974012057299988</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.002144558762913542</v>
+        <v>0.002141505755773511</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.007181407613395985</v>
+        <v>0.007302421371737056</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -2424,19 +2424,19 @@
         <v>10064</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5356</v>
+        <v>5747</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>16627</v>
+        <v>16769</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.003115300590030135</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001657900425566305</v>
+        <v>0.001779135299291871</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.005146878504905944</v>
+        <v>0.005190900613042951</v>
       </c>
     </row>
     <row r="28">
